--- a/biology/Botanique/Trapiche_(moulin)/Trapiche_(moulin).xlsx
+++ b/biology/Botanique/Trapiche_(moulin)/Trapiche_(moulin).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le trapiche (ou engenho[1]) est un moulin traditionnel utilisé pour extraire les sucs de la canne à sucre en vue de sa distillation – parfois aussi de l'olive. Par extension le terme peut aussi désigner le lieu sur lequel se trouve l'installation, c'est-à-dire la ferme (finca-trapiche)[2], ou par la suite l'atelier.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le trapiche (ou engenho) est un moulin traditionnel utilisé pour extraire les sucs de la canne à sucre en vue de sa distillation – parfois aussi de l'olive. Par extension le terme peut aussi désigner le lieu sur lequel se trouve l'installation, c'est-à-dire la ferme (finca-trapiche), ou par la suite l'atelier.
 Automatisée dans les pays plus industrialisés, l'extraction du jus de canne à l'aide du trapiche se poursuit au Cap-Vert, particulièrement sur les îles de Santo Antão et Santiago, où il reste nécessaire à la fabrication du grogue, le rhum local.
-En Amérique du Sud une forme de trapiche était aussi utilisée pour l'extraction du minerai[3].
+En Amérique du Sud une forme de trapiche était aussi utilisée pour l'extraction du minerai.
 </t>
         </is>
       </c>
@@ -513,9 +525,11 @@
           <t>Étymologie et définition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dans son Nouveau dictionnaire français-espagnol et espagnol-français[4] de 1775, Nicolas de Séjournant propose une étymologie latine, trapetum, et donne la définition suivante : « Rouleaux qui servent à écraser les cannes de sucre, dans les moulins à sucre ».
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dans son Nouveau dictionnaire français-espagnol et espagnol-français de 1775, Nicolas de Séjournant propose une étymologie latine, trapetum, et donne la définition suivante : « Rouleaux qui servent à écraser les cannes de sucre, dans les moulins à sucre ».
 </t>
         </is>
       </c>
@@ -544,9 +558,11 @@
           <t>Fonctionnement</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">À l'origine le trapiche est une sorte de pressoir en bois constitué de trois cylindres métalliques tournant en sens contraire[5]. Grâce à un levier en bois légèrement arqué (parfois appelé almanjarra[6]) et à un système d'engrenages, ils sont actionnés par la rotation d'une paire de bœufs ou de mules, guidés par un homme connu sous le nom de kolador di boi au Cap-Vert. Deux autres personnes font passer la canne à sucre entre les cylindres qui la broient et permettent l'écoulement du jus.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">À l'origine le trapiche est une sorte de pressoir en bois constitué de trois cylindres métalliques tournant en sens contraire. Grâce à un levier en bois légèrement arqué (parfois appelé almanjarra) et à un système d'engrenages, ils sont actionnés par la rotation d'une paire de bœufs ou de mules, guidés par un homme connu sous le nom de kolador di boi au Cap-Vert. Deux autres personnes font passer la canne à sucre entre les cylindres qui la broient et permettent l'écoulement du jus.
 			Trapiche à Cidade Velha
 			Jus de la canne à sucre (Ribeira Grande de Santiago)
 			Bagasse ou canne à sucre déchiquetée après expression du vezou (Ribeira Grande de Santiago)
@@ -578,11 +594,13 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dans les archipels de la Macaronésie comme en Amérique latine, l'histoire de la canne à sucre est étroitement liée à celle de la colonisation et de l'esclavage[7]. Sa culture se développe entre le XVIe et le XIXe siècle.
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dans les archipels de la Macaronésie comme en Amérique latine, l'histoire de la canne à sucre est étroitement liée à celle de la colonisation et de l'esclavage. Sa culture se développe entre le XVIe et le XIXe siècle.
 Plusieurs gravures anciennes, dont une planche de la série « Œconomie rustique-Sucrerie » de l'Encyclopédie de Diderot et d'Alembert, illustrent cette technique aussi rudimentaire que répandue.
-Au Cap-Vert, sous l'ère coloniale, le trapiche est d'abord actionné par des esclaves, avant le recours à la force animale. De cette période, sur l'île de Santo Antão, datent les « cantigas-de-curral-de-trapiche » (ou aboios), des chants destinés à encourager les bœufs ou les hommes[8].
+Au Cap-Vert, sous l'ère coloniale, le trapiche est d'abord actionné par des esclaves, avant le recours à la force animale. De cette période, sur l'île de Santo Antão, datent les « cantigas-de-curral-de-trapiche » (ou aboios), des chants destinés à encourager les bœufs ou les hommes.
 			(Historia Naturalis Brasiliae, 1648)
 			Moulin à minerai (Pérou, gravure de 1732)
 			Traction animale (Encyclopédie de Diderot et d'Alembert, 1762)
